--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\CloudContainerPlay\mschassis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A61222-CAB5-4AFC-96ED-A30074C15D87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529D01A9-CD99-47FC-A5CD-A0FC4F1112B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{04CF0484-DD32-4F74-AA83-46ADA1C4A4CA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>SERVICE</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>elk</t>
+  </si>
+  <si>
+    <t>Zookeeper + Each Broker</t>
+  </si>
+  <si>
+    <t>Master + Worker</t>
   </si>
 </sst>
 </file>
@@ -109,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,11 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80665760-63A4-454E-B94B-31D9E3D15D31}">
-  <dimension ref="C1:E19"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,10 +500,11 @@
     <col min="3" max="3" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +515,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
@@ -512,7 +527,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
@@ -523,7 +539,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -534,7 +551,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -545,7 +563,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
@@ -556,7 +575,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
@@ -567,7 +587,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -578,7 +599,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
@@ -589,7 +611,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -600,7 +623,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -611,7 +635,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -621,8 +646,12 @@
       <c r="E12" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
@@ -633,7 +662,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
@@ -644,7 +674,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
@@ -654,8 +685,12 @@
       <c r="E15" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
@@ -666,12 +701,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
@@ -682,7 +718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\CloudContainerPlay\mschassis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529D01A9-CD99-47FC-A5CD-A0FC4F1112B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6EE8D-1045-48C0-9E6C-10457A7DA4BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{04CF0484-DD32-4F74-AA83-46ADA1C4A4CA}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -547,9 +547,6 @@
       <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
@@ -571,9 +568,6 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
-        <v>75</v>
-      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
@@ -583,9 +577,6 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
-        <v>75</v>
-      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
@@ -595,9 +586,6 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
-        <v>75</v>
-      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
@@ -607,9 +595,6 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
-        <v>50</v>
-      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
@@ -619,9 +604,6 @@
       <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="1">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
@@ -631,9 +613,6 @@
       <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
@@ -643,9 +622,6 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
-        <v>150</v>
-      </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
@@ -658,9 +634,6 @@
       <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="1">
-        <v>150</v>
-      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
@@ -670,9 +643,6 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="1">
-        <v>150</v>
-      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
@@ -681,9 +651,6 @@
       </c>
       <c r="D15" s="1">
         <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>150</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -697,16 +664,13 @@
       <c r="D16" s="1">
         <v>10</v>
       </c>
-      <c r="E16" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -714,11 +678,8 @@
       <c r="D18" s="1">
         <v>10</v>
       </c>
-      <c r="E18" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\CloudContainerPlay\mschassis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F6EE8D-1045-48C0-9E6C-10457A7DA4BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{04CF0484-DD32-4F74-AA83-46ADA1C4A4CA}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -105,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -480,31 +474,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80665760-63A4-454E-B94B-31D9E3D15D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6">
       <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -524,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -539,7 +533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -547,8 +541,11 @@
       <c r="D4" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -557,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -568,8 +565,11 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -577,8 +577,11 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -587,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -596,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -605,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6">
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -614,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -626,7 +629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6">
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -635,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -644,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
         <v>10</v>
@@ -656,7 +659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6">
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -665,12 +668,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5">
       <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5">
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -678,8 +681,11 @@
       <c r="D18" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="C19" s="3" t="s">
         <v>20</v>
       </c>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -474,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,13 +485,13 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E2:E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="1" bestFit="1" customWidth="1"/>
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1">
-        <v>1000</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -589,6 +589,9 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
+      <c r="E8" s="1">
+        <v>768</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="4"/>
@@ -598,6 +601,9 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
+      <c r="E9" s="1">
+        <v>768</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="4"/>
@@ -637,6 +643,9 @@
       <c r="D13" s="1">
         <v>10</v>
       </c>
+      <c r="E13" s="1">
+        <v>768</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="4"/>
@@ -646,6 +655,9 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
+      <c r="E14" s="1">
+        <v>768</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="4"/>
@@ -667,6 +679,9 @@
       <c r="D16" s="1">
         <v>10</v>
       </c>
+      <c r="E16" s="1">
+        <v>768</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="C17" s="3" t="s">
@@ -682,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="1">
-        <v>1000</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="19" spans="2:5">

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -474,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +485,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -494,7 +494,7 @@
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -667,6 +667,10 @@
       <c r="D15" s="1">
         <v>10</v>
       </c>
+      <c r="E15" s="1">
+        <f>(768+768)</f>
+        <v>1536</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>22</v>
       </c>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -474,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +485,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -474,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +485,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -566,7 +566,8 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>768</v>
+        <f>(768+768)</f>
+        <v>1536</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -622,6 +623,9 @@
       <c r="D11" s="1">
         <v>10</v>
       </c>
+      <c r="E11" s="1">
+        <v>768</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="4"/>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SERVICE</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Master + Worker</t>
+  </si>
+  <si>
+    <t>Removed</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +488,7 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -587,11 +590,11 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
       <c r="E8" s="1">
-        <v>768</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -715,5 +718,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -90,13 +90,13 @@
     <t>elk</t>
   </si>
   <si>
-    <t>Zookeeper + Each Broker</t>
-  </si>
-  <si>
     <t>Master + Worker</t>
   </si>
   <si>
     <t>Removed</t>
+  </si>
+  <si>
+    <t>Zookeeper(768) + 2 Brokers (512 each)</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,7 +133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,12 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,16 +495,16 @@
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="8.7109375" style="1"/>
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -513,60 +520,60 @@
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E2" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>15</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="1">
         <f>(768+768)</f>
@@ -574,12 +581,12 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="1">
         <v>768</v>
@@ -587,108 +594,116 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="1">
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="E11" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="1">
+        <f>(768+512+512)</f>
+        <v>1792</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="E13" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="1">
         <v>768</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="1">
         <f>(768+768)</f>
         <v>1536</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="1">
         <v>768</v>
@@ -700,12 +715,12 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="1">
         <v>1024</v>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>SERVICE</t>
   </si>
@@ -115,9 +115,6 @@
     <t>CPU</t>
   </si>
   <si>
-    <t>500m</t>
-  </si>
-  <si>
     <t>100m</t>
   </si>
   <si>
@@ -173,6 +170,12 @@
   </si>
   <si>
     <t>productms</t>
+  </si>
+  <si>
+    <t>750m</t>
+  </si>
+  <si>
+    <t>900m</t>
   </si>
 </sst>
 </file>
@@ -269,10 +272,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -849,7 +852,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,16 +872,16 @@
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
+      <c r="F1" s="8"/>
+      <c r="G1" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -902,16 +905,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -923,16 +926,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -944,16 +947,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -962,19 +965,19 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -983,19 +986,19 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1007,16 +1010,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -1028,16 +1031,16 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -1049,16 +1052,16 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1070,16 +1073,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1091,16 +1094,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1112,16 +1115,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1133,16 +1136,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1154,16 +1157,16 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1175,16 +1178,16 @@
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1196,16 +1199,16 @@
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1217,16 +1220,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1235,19 +1238,19 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1256,19 +1259,19 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -1276,19 +1279,19 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -1296,19 +1299,19 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1316,19 +1319,19 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -1336,19 +1339,19 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>

--- a/Quotas.xlsx
+++ b/Quotas.xlsx
@@ -172,10 +172,10 @@
     <t>productms</t>
   </si>
   <si>
-    <t>750m</t>
-  </si>
-  <si>
-    <t>900m</t>
+    <t>500m</t>
+  </si>
+  <si>
+    <t>1000m</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,7 +852,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1010,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
@@ -1226,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -1302,7 +1302,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>48</v>
@@ -1322,7 +1322,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
@@ -1348,7 +1348,7 @@
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>49</v>
